--- a/ez_dxf/Weblink/New Microsoft Excel Worksheet.xlsx
+++ b/ez_dxf/Weblink/New Microsoft Excel Worksheet.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
